--- a/Scraped_Data/ECB_PDF_Link.xlsx
+++ b/Scraped_Data/ECB_PDF_Link.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="114">
   <si>
     <t>date</t>
   </si>
@@ -25,6 +25,9 @@
     <t>title</t>
   </si>
   <si>
+    <t>https://www.ecb.europa.eu/press/key/date/2023/html/ecb.sp230227~7c5d976edb.en.pdf?b02716011db4515f9128ea180c2a3003</t>
+  </si>
+  <si>
     <t>https://www.ecb.europa.eu/press/key/date/2023/html/ecb.sp230207~e3ac4b6b62.en.pdf?e162a4bfd461d465b381e90bc71386d2</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>https://www.ecb.europa.eu/press/key/date/2018/html/ecb.sp180615_slides.en.pdf?78c96a75d5ccb30bb7105d3fb28d7612</t>
+  </si>
+  <si>
+    <t>Macro-Financial Stability in the EU: Some Lessons on the occasion of Fifty Years of Irish Membership of the EU</t>
   </si>
   <si>
     <t>Monetary policy in times of pandemic and war</t>
@@ -724,7 +730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -743,321 +749,321 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>44964</v>
+        <v>44984</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>44932</v>
+        <v>44964</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>44902</v>
+        <v>44932</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>44894</v>
+        <v>44896</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>44876</v>
+        <v>44894</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>44865</v>
+        <v>44875</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>44826</v>
+        <v>44865</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>44821</v>
+        <v>44826</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>44796</v>
+        <v>44821</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>44791</v>
+        <v>44796</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>44744</v>
+        <v>44791</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>44732</v>
+        <v>44744</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>44713</v>
+        <v>44732</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>44706</v>
+        <v>44713</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>44701</v>
+        <v>44706</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>44637</v>
+        <v>44701</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>44609</v>
+        <v>44637</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>44529</v>
+        <v>44609</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>44511</v>
+        <v>44524</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>44509</v>
+        <v>44511</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>44476</v>
+        <v>44509</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>44454</v>
+        <v>44476</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>44434</v>
+        <v>44454</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>44371</v>
+        <v>44434</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>44369</v>
+        <v>44371</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1068,205 +1074,205 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>44341</v>
+        <v>44369</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>44321</v>
+        <v>44341</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>44273</v>
+        <v>44300</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>44252</v>
+        <v>44273</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>44245</v>
+        <v>44252</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>44182</v>
+        <v>44245</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>44180</v>
+        <v>44182</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>44159</v>
+        <v>44180</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>44140</v>
+        <v>44159</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>44125</v>
+        <v>44140</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>44118</v>
+        <v>44125</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>44105</v>
+        <v>44118</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>44014</v>
+        <v>44105</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>44007</v>
+        <v>44014</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>44004</v>
+        <v>44007</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>43866</v>
+        <v>44004</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>43839</v>
+        <v>43866</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1277,106 +1283,106 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>43784</v>
+        <v>43839</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>43754</v>
+        <v>43784</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>43712</v>
+        <v>43754</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>43640</v>
+        <v>43712</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>43516</v>
+        <v>43640</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>43360</v>
+        <v>43516</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>43340</v>
+        <v>43360</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>43266</v>
+        <v>43340</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>44964</v>
+        <v>43266</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1384,10 +1390,10 @@
         <v>44964</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1395,10 +1401,21 @@
         <v>44964</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1463,6 +1480,7 @@
     <hyperlink ref="B59" r:id="rId58"/>
     <hyperlink ref="B60" r:id="rId59"/>
     <hyperlink ref="B61" r:id="rId60"/>
+    <hyperlink ref="B62" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
